--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
@@ -43,10 +43,10 @@
     <t>Err</t>
   </si>
   <si>
-    <t>LR: IC</t>
-  </si>
-  <si>
-    <t>LR: IC+Dem</t>
+    <t>LR: FC</t>
+  </si>
+  <si>
+    <t>LR: FC+Dem</t>
   </si>
   <si>
     <t>LR: CK</t>
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7655733897605285</v>
+        <v>0.7650327725020644</v>
       </c>
       <c r="C4">
-        <v>0.002643713684639115</v>
+        <v>0.002525477804881548</v>
       </c>
       <c r="D4">
-        <v>0.532541332742652</v>
+        <v>0.5323407384565003</v>
       </c>
       <c r="E4">
-        <v>0.003339303159200613</v>
+        <v>0.003039896912630624</v>
       </c>
       <c r="F4">
-        <v>0.7176785714285714</v>
+        <v>0.7189285714285714</v>
       </c>
       <c r="G4">
-        <v>0.004381593924711269</v>
+        <v>0.003880449657583385</v>
       </c>
       <c r="H4">
-        <v>0.4234422434371456</v>
+        <v>0.4227361117735199</v>
       </c>
       <c r="I4">
-        <v>0.003017176171443758</v>
+        <v>0.002768052925582187</v>
       </c>
       <c r="J4">
-        <v>0.8820486153179081</v>
+        <v>0.88228048173345</v>
       </c>
       <c r="K4">
-        <v>0.001775108490795763</v>
+        <v>0.001608471862115546</v>
       </c>
       <c r="L4">
-        <v>0.6834104046242776</v>
+        <v>0.6819653179190752</v>
       </c>
       <c r="M4">
-        <v>0.002873059857794513</v>
+        <v>0.002697128583993957</v>
       </c>
       <c r="N4">
-        <v>0.6917903930131004</v>
+        <v>0.6910043668122273</v>
       </c>
       <c r="O4">
-        <v>0.002667600678573745</v>
+        <v>0.002496337436984519</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7940754025598679</v>
+        <v>0.7946957576383155</v>
       </c>
       <c r="C5">
-        <v>0.002639713749428063</v>
+        <v>0.002664662103127102</v>
       </c>
       <c r="D5">
-        <v>0.5568058787077842</v>
+        <v>0.5579091967527684</v>
       </c>
       <c r="E5">
-        <v>0.003518346339750456</v>
+        <v>0.003323161216268855</v>
       </c>
       <c r="F5">
-        <v>0.7229464285714288</v>
+        <v>0.7261607142857142</v>
       </c>
       <c r="G5">
-        <v>0.003920885010959885</v>
+        <v>0.003802667321911479</v>
       </c>
       <c r="H5">
-        <v>0.4529226336170734</v>
+        <v>0.453139249039928</v>
       </c>
       <c r="I5">
-        <v>0.003525580613090218</v>
+        <v>0.003401841472375933</v>
       </c>
       <c r="J5">
-        <v>0.8887775161142188</v>
+        <v>0.8898006852978603</v>
       </c>
       <c r="K5">
-        <v>0.001606148046161882</v>
+        <v>0.001514828400785984</v>
       </c>
       <c r="L5">
-        <v>0.716878612716763</v>
+        <v>0.7158670520231213</v>
       </c>
       <c r="M5">
-        <v>0.003349770060339985</v>
+        <v>0.003345577546563061</v>
       </c>
       <c r="N5">
-        <v>0.7183624454148472</v>
+        <v>0.7183842794759825</v>
       </c>
       <c r="O5">
-        <v>0.002961157307366569</v>
+        <v>0.002847898061701493</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.842869332441024</v>
+        <v>0.844170988790363</v>
       </c>
       <c r="C6">
-        <v>0.003336875484106105</v>
+        <v>0.004007794865705128</v>
       </c>
       <c r="D6">
-        <v>0.5938890315477441</v>
+        <v>0.5972547522014662</v>
       </c>
       <c r="E6">
-        <v>0.006103257901985182</v>
+        <v>0.006061518687047407</v>
       </c>
       <c r="F6">
-        <v>0.7697674418604649</v>
+        <v>0.7751162790697673</v>
       </c>
       <c r="G6">
-        <v>0.006956557220736959</v>
+        <v>0.006911736274172742</v>
       </c>
       <c r="H6">
-        <v>0.4837780649978514</v>
+        <v>0.4861126824652541</v>
       </c>
       <c r="I6">
-        <v>0.005907823365468412</v>
+        <v>0.005843374372778154</v>
       </c>
       <c r="J6">
-        <v>0.9127007107607816</v>
+        <v>0.9146234535094051</v>
       </c>
       <c r="K6">
-        <v>0.002647504890594621</v>
+        <v>0.002635321057677942</v>
       </c>
       <c r="L6">
-        <v>0.7450359712230216</v>
+        <v>0.7456834532374098</v>
       </c>
       <c r="M6">
-        <v>0.004645901178959688</v>
+        <v>0.00458819114176312</v>
       </c>
       <c r="N6">
-        <v>0.7508791208791209</v>
+        <v>0.7526373626373625</v>
       </c>
       <c r="O6">
-        <v>0.004497052350626918</v>
+        <v>0.004458872883185694</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8636222185042663</v>
+        <v>0.8655997992303832</v>
       </c>
       <c r="C7">
-        <v>0.00336946861651366</v>
+        <v>0.003428230039830504</v>
       </c>
       <c r="D7">
-        <v>0.6193710745840629</v>
+        <v>0.6207578570548612</v>
       </c>
       <c r="E7">
-        <v>0.006368670370740181</v>
+        <v>0.006881641042673636</v>
       </c>
       <c r="F7">
-        <v>0.7846511627906976</v>
+        <v>0.7813953488372093</v>
       </c>
       <c r="G7">
-        <v>0.006480186457008097</v>
+        <v>0.007303464844279461</v>
       </c>
       <c r="H7">
-        <v>0.5121230462047445</v>
+        <v>0.5154623222834717</v>
       </c>
       <c r="I7">
-        <v>0.006698071908467496</v>
+        <v>0.007060006531563578</v>
       </c>
       <c r="J7">
-        <v>0.920074832633309</v>
+        <v>0.9193438289909364</v>
       </c>
       <c r="K7">
-        <v>0.002432263332643458</v>
+        <v>0.002741966740304358</v>
       </c>
       <c r="L7">
-        <v>0.7675539568345324</v>
+        <v>0.7715107913669066</v>
       </c>
       <c r="M7">
-        <v>0.005163652741954738</v>
+        <v>0.005418175450951912</v>
       </c>
       <c r="N7">
-        <v>0.7715934065934066</v>
+        <v>0.7738461538461539</v>
       </c>
       <c r="O7">
-        <v>0.004743993126188895</v>
+        <v>0.005077625770301242</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.814081621413229</v>
+        <v>0.8120812909621634</v>
       </c>
       <c r="C8">
-        <v>0.002870836888948736</v>
+        <v>0.00320478933308832</v>
       </c>
       <c r="D8">
-        <v>0.5086911254472063</v>
+        <v>0.507328553652203</v>
       </c>
       <c r="E8">
-        <v>0.003735471086828035</v>
+        <v>0.004202926040354438</v>
       </c>
       <c r="F8">
-        <v>0.7553731343283583</v>
+        <v>0.7529850746268657</v>
       </c>
       <c r="G8">
-        <v>0.004942947673283737</v>
+        <v>0.004769270791799785</v>
       </c>
       <c r="H8">
-        <v>0.3836443023618406</v>
+        <v>0.3827241436928583</v>
       </c>
       <c r="I8">
-        <v>0.003404463666427548</v>
+        <v>0.003892324963169103</v>
       </c>
       <c r="J8">
-        <v>0.9204048150952826</v>
+        <v>0.91959846335224</v>
       </c>
       <c r="K8">
-        <v>0.001581481446606414</v>
+        <v>0.001600278571658342</v>
       </c>
       <c r="L8">
-        <v>0.6994095940959412</v>
+        <v>0.6990036900369003</v>
       </c>
       <c r="M8">
-        <v>0.003567909280491</v>
+        <v>0.003967237296383264</v>
       </c>
       <c r="N8">
-        <v>0.7105029585798817</v>
+        <v>0.7097041420118342</v>
       </c>
       <c r="O8">
-        <v>0.003145749904505779</v>
+        <v>0.003595907792404152</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8238563639367738</v>
+        <v>0.8265396265902959</v>
       </c>
       <c r="C9">
-        <v>0.003423655714733576</v>
+        <v>0.003109821321508388</v>
       </c>
       <c r="D9">
-        <v>0.5487179955496488</v>
+        <v>0.5514041324281752</v>
       </c>
       <c r="E9">
-        <v>0.004624399501298226</v>
+        <v>0.004209816709704772</v>
       </c>
       <c r="F9">
-        <v>0.7973134328358207</v>
+        <v>0.7986567164179103</v>
       </c>
       <c r="G9">
-        <v>0.00536056296317855</v>
+        <v>0.004881629592776271</v>
       </c>
       <c r="H9">
-        <v>0.4186333920324734</v>
+        <v>0.4213035186557013</v>
       </c>
       <c r="I9">
-        <v>0.004523217724278161</v>
+        <v>0.004060355293173556</v>
       </c>
       <c r="J9">
-        <v>0.935359958632052</v>
+        <v>0.9359866547655082</v>
       </c>
       <c r="K9">
-        <v>0.001691990067952953</v>
+        <v>0.001545714772427265</v>
       </c>
       <c r="L9">
-        <v>0.7252767527675278</v>
+        <v>0.7280442804428044</v>
       </c>
       <c r="M9">
-        <v>0.004529499771455225</v>
+        <v>0.003941554550568438</v>
       </c>
       <c r="N9">
-        <v>0.7395562130177515</v>
+        <v>0.7420414201183434</v>
       </c>
       <c r="O9">
-        <v>0.003907817022340887</v>
+        <v>0.003467190240606932</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7650327725020644</v>
+        <v>0.7445066437007875</v>
       </c>
       <c r="C4">
-        <v>0.002525477804881548</v>
+        <v>0.002906741493928999</v>
       </c>
       <c r="D4">
-        <v>0.5323407384565003</v>
+        <v>0.5174152557181833</v>
       </c>
       <c r="E4">
-        <v>0.003039896912630624</v>
+        <v>0.002941486041479369</v>
       </c>
       <c r="F4">
-        <v>0.7189285714285714</v>
+        <v>0.7037795275590552</v>
       </c>
       <c r="G4">
-        <v>0.003880449657583385</v>
+        <v>0.003971078609561807</v>
       </c>
       <c r="H4">
-        <v>0.4227361117735199</v>
+        <v>0.4091777254305082</v>
       </c>
       <c r="I4">
-        <v>0.002768052925582187</v>
+        <v>0.00263863602930936</v>
       </c>
       <c r="J4">
-        <v>0.88228048173345</v>
+        <v>0.8713696672733238</v>
       </c>
       <c r="K4">
-        <v>0.001608471862115546</v>
+        <v>0.001671194343074056</v>
       </c>
       <c r="L4">
-        <v>0.6819653179190752</v>
+        <v>0.663671875</v>
       </c>
       <c r="M4">
-        <v>0.002697128583993957</v>
+        <v>0.002730664015531681</v>
       </c>
       <c r="N4">
-        <v>0.6910043668122273</v>
+        <v>0.6736399217221134</v>
       </c>
       <c r="O4">
-        <v>0.002496337436984519</v>
+        <v>0.002466260350919014</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7946957576383155</v>
+        <v>0.7835513041338582</v>
       </c>
       <c r="C5">
-        <v>0.002664662103127102</v>
+        <v>0.002254518341436085</v>
       </c>
       <c r="D5">
-        <v>0.5579091967527684</v>
+        <v>0.551815807664099</v>
       </c>
       <c r="E5">
-        <v>0.003323161216268855</v>
+        <v>0.003048158136173762</v>
       </c>
       <c r="F5">
-        <v>0.7261607142857142</v>
+        <v>0.7198425196850393</v>
       </c>
       <c r="G5">
-        <v>0.003802667321911479</v>
+        <v>0.003782827811512179</v>
       </c>
       <c r="H5">
-        <v>0.453139249039928</v>
+        <v>0.4475375562099442</v>
       </c>
       <c r="I5">
-        <v>0.003401841472375933</v>
+        <v>0.003025700744664461</v>
       </c>
       <c r="J5">
-        <v>0.8898006852978603</v>
+        <v>0.8839476500756095</v>
       </c>
       <c r="K5">
-        <v>0.001514828400785984</v>
+        <v>0.001496452752872246</v>
       </c>
       <c r="L5">
-        <v>0.7158670520231213</v>
+        <v>0.7057552083333333</v>
       </c>
       <c r="M5">
-        <v>0.003345577546563061</v>
+        <v>0.003078948188499075</v>
       </c>
       <c r="N5">
-        <v>0.7183842794759825</v>
+        <v>0.7092563600782776</v>
       </c>
       <c r="O5">
-        <v>0.002847898061701493</v>
+        <v>0.002594111143217503</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.844170988790363</v>
+        <v>0.8539653836218032</v>
       </c>
       <c r="C6">
-        <v>0.004007794865705128</v>
+        <v>0.003282192620921887</v>
       </c>
       <c r="D6">
-        <v>0.5972547522014662</v>
+        <v>0.6123469731359803</v>
       </c>
       <c r="E6">
-        <v>0.006061518687047407</v>
+        <v>0.005284129230716861</v>
       </c>
       <c r="F6">
-        <v>0.7751162790697673</v>
+        <v>0.784081632653061</v>
       </c>
       <c r="G6">
-        <v>0.006911736274172742</v>
+        <v>0.00552597388240772</v>
       </c>
       <c r="H6">
-        <v>0.4861126824652541</v>
+        <v>0.50263980236645</v>
       </c>
       <c r="I6">
-        <v>0.005843374372778154</v>
+        <v>0.005406540446430769</v>
       </c>
       <c r="J6">
-        <v>0.9146234535094051</v>
+        <v>0.918841686421936</v>
       </c>
       <c r="K6">
-        <v>0.002635321057677942</v>
+        <v>0.002111330387618349</v>
       </c>
       <c r="L6">
-        <v>0.7456834532374098</v>
+        <v>0.7586075949367088</v>
       </c>
       <c r="M6">
-        <v>0.00458819114176312</v>
+        <v>0.00422784095140083</v>
       </c>
       <c r="N6">
-        <v>0.7526373626373625</v>
+        <v>0.7646376811594203</v>
       </c>
       <c r="O6">
-        <v>0.004458872883185694</v>
+        <v>0.003958293704847238</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8655997992303832</v>
+        <v>0.8759222423146474</v>
       </c>
       <c r="C7">
-        <v>0.003428230039830504</v>
+        <v>0.002936383992259262</v>
       </c>
       <c r="D7">
-        <v>0.6207578570548612</v>
+        <v>0.6393461453582562</v>
       </c>
       <c r="E7">
-        <v>0.006881641042673636</v>
+        <v>0.005411637694085814</v>
       </c>
       <c r="F7">
-        <v>0.7813953488372093</v>
+        <v>0.7957142857142856</v>
       </c>
       <c r="G7">
-        <v>0.007303464844279461</v>
+        <v>0.005535407584035701</v>
       </c>
       <c r="H7">
-        <v>0.5154623222834717</v>
+        <v>0.534785478987843</v>
       </c>
       <c r="I7">
-        <v>0.007060006531563578</v>
+        <v>0.005856888151290263</v>
       </c>
       <c r="J7">
-        <v>0.9193438289909364</v>
+        <v>0.9252450300350823</v>
       </c>
       <c r="K7">
-        <v>0.002741966740304358</v>
+        <v>0.002032265647953113</v>
       </c>
       <c r="L7">
-        <v>0.7715107913669066</v>
+        <v>0.7844303797468354</v>
       </c>
       <c r="M7">
-        <v>0.005418175450951912</v>
+        <v>0.004429516908617148</v>
       </c>
       <c r="N7">
-        <v>0.7738461538461539</v>
+        <v>0.7871014492753623</v>
       </c>
       <c r="O7">
-        <v>0.005077625770301242</v>
+        <v>0.003984410001382055</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8120812909621634</v>
+        <v>0.8063562301689392</v>
       </c>
       <c r="C8">
-        <v>0.00320478933308832</v>
+        <v>0.003118094840048991</v>
       </c>
       <c r="D8">
-        <v>0.507328553652203</v>
+        <v>0.5071136773669522</v>
       </c>
       <c r="E8">
-        <v>0.004202926040354438</v>
+        <v>0.004032987310317315</v>
       </c>
       <c r="F8">
-        <v>0.7529850746268657</v>
+        <v>0.7392307692307692</v>
       </c>
       <c r="G8">
-        <v>0.004769270791799785</v>
+        <v>0.005192270918345954</v>
       </c>
       <c r="H8">
-        <v>0.3827241436928583</v>
+        <v>0.3860803924124139</v>
       </c>
       <c r="I8">
-        <v>0.003892324963169103</v>
+        <v>0.003579665197651793</v>
       </c>
       <c r="J8">
-        <v>0.91959846335224</v>
+        <v>0.9105663877510903</v>
       </c>
       <c r="K8">
-        <v>0.001600278571658342</v>
+        <v>0.001798338235984187</v>
       </c>
       <c r="L8">
-        <v>0.6990036900369003</v>
+        <v>0.6928428093645483</v>
       </c>
       <c r="M8">
-        <v>0.003967237296383264</v>
+        <v>0.00349085063139154</v>
       </c>
       <c r="N8">
-        <v>0.7097041420118342</v>
+        <v>0.7024403183023873</v>
       </c>
       <c r="O8">
-        <v>0.003595907792404152</v>
+        <v>0.003265397132499848</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8265396265902959</v>
+        <v>0.8240571134551068</v>
       </c>
       <c r="C9">
-        <v>0.003109821321508388</v>
+        <v>0.002730394610175768</v>
       </c>
       <c r="D9">
-        <v>0.5514041324281752</v>
+        <v>0.5534242730616024</v>
       </c>
       <c r="E9">
-        <v>0.004209816709704772</v>
+        <v>0.004358824526623506</v>
       </c>
       <c r="F9">
-        <v>0.7986567164179103</v>
+        <v>0.7861538461538461</v>
       </c>
       <c r="G9">
-        <v>0.004881629592776271</v>
+        <v>0.004995421820727985</v>
       </c>
       <c r="H9">
-        <v>0.4213035186557013</v>
+        <v>0.4271970240662556</v>
       </c>
       <c r="I9">
-        <v>0.004060355293173556</v>
+        <v>0.004068800147601692</v>
       </c>
       <c r="J9">
-        <v>0.9359866547655082</v>
+        <v>0.9284601361078504</v>
       </c>
       <c r="K9">
-        <v>0.001545714772427265</v>
+        <v>0.001705746881221049</v>
       </c>
       <c r="L9">
-        <v>0.7280442804428044</v>
+        <v>0.7244147157190638</v>
       </c>
       <c r="M9">
-        <v>0.003941554550568438</v>
+        <v>0.003638453537178399</v>
       </c>
       <c r="N9">
-        <v>0.7420414201183434</v>
+        <v>0.7371883289124668</v>
       </c>
       <c r="O9">
-        <v>0.003467190240606932</v>
+        <v>0.003413124975320425</v>
       </c>
     </row>
   </sheetData>
